--- a/结果/CHB-MIT数据集/DT分类/标准差/DT_chb01_biaozhuncha.xlsx
+++ b/结果/CHB-MIT数据集/DT分类/标准差/DT_chb01_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\CHB-MIT数据集\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD30BFEF-BF1F-41F3-BEAF-A2D670207AF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B452471-81AA-4353-8DFA-7076D61AE342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5988" yWindow="1572" windowWidth="15828" windowHeight="11016" activeTab="6" xr2:uid="{36FE4C7A-DA75-46B1-AE3D-ABAFEF11EC7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{36FE4C7A-DA75-46B1-AE3D-ABAFEF11EC7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +66,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -94,8 +103,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABBE9A1-1D83-415D-A4AB-224FC62139EC}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -594,6 +606,20 @@
       </c>
       <c r="C32">
         <v>82.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>91.458333333333329</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>91.18959333333332</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>91.493300000000005</v>
       </c>
     </row>
   </sheetData>
@@ -605,10 +631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29526DD1-21E1-4DEC-888A-3913D1FAE416}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -787,6 +813,20 @@
       </c>
       <c r="C32">
         <v>92.7273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>91.94444</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>92.464173333333335</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>91.263673333333344</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE146B01-4D08-45C6-AC6B-03B47CC404F9}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -979,6 +1019,20 @@
       </c>
       <c r="C32">
         <v>89.361699999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>87.361100000000008</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>86.827806666666675</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>87.671639999999996</v>
       </c>
     </row>
   </sheetData>
@@ -989,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A6665F-51F7-40A4-9446-41EA01B83BA6}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1171,6 +1225,20 @@
       </c>
       <c r="C32">
         <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>97.152773333333329</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>96.511426666666665</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>97.800946666666675</v>
       </c>
     </row>
   </sheetData>
@@ -1181,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388BC323-EC15-4FB8-B98F-B8D6B6C93246}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1363,6 +1431,20 @@
       </c>
       <c r="C32">
         <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>95.208333333333329</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>95.314959999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>95.107006666666663</v>
       </c>
     </row>
   </sheetData>
@@ -1373,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C76806-37D8-4A94-808D-3ACB735479AA}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1555,6 +1637,20 @@
       </c>
       <c r="C33">
         <v>95.652199999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" ref="A34:C34" si="0">AVERAGE(A2:A33)</f>
+        <v>94.861113333333336</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>94.744313333333338</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>95.255733333333325</v>
       </c>
     </row>
   </sheetData>
@@ -1565,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F13D29F-A3D8-4C95-859D-3E5E9AFB0900}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1749,6 +1845,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>98.541653333333343</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>98.119459999999989</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>98.884659999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
